--- a/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Roxie_vs_MM_SkewMCBXFB_02_Inner_Collar_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Roxie_vs_MM_SkewMCBXFB_02_Inner_Collar_600_20210510.xlsx
@@ -617,6 +617,51 @@
       <c r="Q2">
         <v>0.0109480524160501</v>
       </c>
+      <c r="R2">
+        <v>-1.337838565409555</v>
+      </c>
+      <c r="S2">
+        <v>-8.269086930983669E-13</v>
+      </c>
+      <c r="T2">
+        <v>1.360444237557329E-05</v>
+      </c>
+      <c r="U2">
+        <v>-1.63803004089104E-13</v>
+      </c>
+      <c r="V2">
+        <v>-6.600385893199175E-11</v>
+      </c>
+      <c r="W2">
+        <v>7.897328883233405E-13</v>
+      </c>
+      <c r="X2">
+        <v>-2.424766859672106E-12</v>
+      </c>
+      <c r="Y2">
+        <v>1.532068979617191E-12</v>
+      </c>
+      <c r="Z2">
+        <v>-5.310492828546826E-13</v>
+      </c>
+      <c r="AA2">
+        <v>-9.777276637332196E-13</v>
+      </c>
+      <c r="AB2">
+        <v>-1.391507398184265E-12</v>
+      </c>
+      <c r="AC2">
+        <v>7.287700924359587E-13</v>
+      </c>
+      <c r="AD2">
+        <v>2.832140490315909E-12</v>
+      </c>
+      <c r="AE2">
+        <v>1.825999367368235E-12</v>
+      </c>
+      <c r="AF2">
+        <v>-2.204464501380965E-12</v>
+      </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1">
@@ -671,49 +716,49 @@
         <v>-0.005820565318226338</v>
       </c>
       <c r="R3">
-        <v>-0.5306711556299337</v>
+        <v>-0.2705565634733364</v>
       </c>
       <c r="S3">
-        <v>-3.685470955032426E-11</v>
+        <v>-2.279830358580996E-12</v>
       </c>
       <c r="T3">
-        <v>2.110209906078307E-05</v>
+        <v>4.662603067545822E-06</v>
       </c>
       <c r="U3">
-        <v>-1.734720815290731E-11</v>
+        <v>-9.896348797876338E-13</v>
       </c>
       <c r="V3">
-        <v>-3.52180363872792E-10</v>
+        <v>1.65636285128571E-12</v>
       </c>
       <c r="W3">
-        <v>5.995469728170165E-12</v>
+        <v>-2.029270487838328E-12</v>
       </c>
       <c r="X3">
-        <v>1.292145548602479E-12</v>
+        <v>-1.747286461432773E-12</v>
       </c>
       <c r="Y3">
-        <v>-1.116636882020209E-11</v>
+        <v>-2.955419177319132E-13</v>
       </c>
       <c r="Z3">
-        <v>-1.796581743420389E-11</v>
+        <v>-7.096010193634897E-13</v>
       </c>
       <c r="AA3">
-        <v>-7.443104760228145E-13</v>
+        <v>1.06120913555152E-12</v>
       </c>
       <c r="AB3">
-        <v>-1.61741769486133E-11</v>
+        <v>-5.779458650260569E-13</v>
       </c>
       <c r="AC3">
-        <v>-1.890289813358275E-11</v>
+        <v>-7.814848038369424E-13</v>
       </c>
       <c r="AD3">
-        <v>-2.96252893418739E-11</v>
+        <v>-5.207257750382499E-13</v>
       </c>
       <c r="AE3">
-        <v>-3.178144758997939E-11</v>
+        <v>-1.307904803855121E-12</v>
       </c>
       <c r="AF3">
-        <v>-4.391351429795977E-11</v>
+        <v>-2.488320783012008E-12</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -769,49 +814,49 @@
         <v>0.0389006036498829</v>
       </c>
       <c r="R4">
-        <v>0.172713977463438</v>
+        <v>0.2906867570658695</v>
       </c>
       <c r="S4">
-        <v>-3.601078877966914E-12</v>
+        <v>-6.356135710437916E-14</v>
       </c>
       <c r="T4">
-        <v>-0.0002645552625269719</v>
+        <v>0.02191623888168907</v>
       </c>
       <c r="U4">
-        <v>5.649052984895708E-13</v>
+        <v>3.676158993724636E-13</v>
       </c>
       <c r="V4">
-        <v>1.740397986094462E-07</v>
+        <v>-0.004384943978703266</v>
       </c>
       <c r="W4">
-        <v>1.078158714936466E-12</v>
+        <v>-1.362720787770685E-14</v>
       </c>
       <c r="X4">
-        <v>1.573555502277631E-10</v>
+        <v>-0.003405304702834029</v>
       </c>
       <c r="Y4">
-        <v>3.020139055382402E-12</v>
+        <v>-3.319900718282364E-13</v>
       </c>
       <c r="Z4">
-        <v>-1.667125389594821E-12</v>
+        <v>0.003453103769163696</v>
       </c>
       <c r="AA4">
-        <v>-1.294737473028051E-12</v>
+        <v>2.264272282845212E-13</v>
       </c>
       <c r="AB4">
-        <v>-9.400383601054904E-13</v>
+        <v>-0.001874283784164952</v>
       </c>
       <c r="AC4">
-        <v>1.709110525053944E-12</v>
+        <v>1.22885474474511E-12</v>
       </c>
       <c r="AD4">
-        <v>1.533689762646847E-12</v>
+        <v>0.000729896924742329</v>
       </c>
       <c r="AE4">
-        <v>-5.237473028050827E-13</v>
+        <v>-1.704146871637906E-12</v>
       </c>
       <c r="AF4">
-        <v>-3.68173099976025E-12</v>
+        <v>-0.0001965849659114712</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -867,49 +912,49 @@
         <v>0.03983025916678377</v>
       </c>
       <c r="R5">
-        <v>-171.7684866162705</v>
+        <v>-11.62022836783771</v>
       </c>
       <c r="S5">
-        <v>6.224574369829143E-13</v>
+        <v>1.965047248987877E-12</v>
       </c>
       <c r="T5">
-        <v>76.6281655861473</v>
+        <v>5.01705255004576</v>
       </c>
       <c r="U5">
-        <v>1.746251984362062E-11</v>
+        <v>-8.563531391616863E-13</v>
       </c>
       <c r="V5">
-        <v>-7.466093422018485</v>
+        <v>-0.6077331901005527</v>
       </c>
       <c r="W5">
-        <v>2.067159815786985E-11</v>
+        <v>1.013652510108007E-13</v>
       </c>
       <c r="X5">
-        <v>-0.6528037297240248</v>
+        <v>0.4872992337929156</v>
       </c>
       <c r="Y5">
-        <v>2.86856214291483E-11</v>
+        <v>1.13623434454512E-12</v>
       </c>
       <c r="Z5">
-        <v>4.281887507124655</v>
+        <v>0.6201816458410137</v>
       </c>
       <c r="AA5">
-        <v>1.283970600504058E-11</v>
+        <v>2.888909273690698E-13</v>
       </c>
       <c r="AB5">
-        <v>1.147633448517294</v>
+        <v>0.1217828030347057</v>
       </c>
       <c r="AC5">
-        <v>-2.950287079140993E-11</v>
+        <v>5.568293730066424E-13</v>
       </c>
       <c r="AD5">
-        <v>0.4463583633872226</v>
+        <v>0.1711827942459404</v>
       </c>
       <c r="AE5">
-        <v>-4.261590182636398E-12</v>
+        <v>-3.720647396918074E-12</v>
       </c>
       <c r="AF5">
-        <v>0.3264354224851196</v>
+        <v>0.06133197163469027</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -963,6 +1008,51 @@
       </c>
       <c r="Q6">
         <v>-0.03655605922066463</v>
+      </c>
+      <c r="R6">
+        <v>-8.841782663802888</v>
+      </c>
+      <c r="S6">
+        <v>7.903014699487778E-14</v>
+      </c>
+      <c r="T6">
+        <v>0.006210640455564125</v>
+      </c>
+      <c r="U6">
+        <v>-3.616898227629034E-13</v>
+      </c>
+      <c r="V6">
+        <v>-5.305050519056559E-05</v>
+      </c>
+      <c r="W6">
+        <v>-9.144717594184479E-13</v>
+      </c>
+      <c r="X6">
+        <v>-9.748286428622974E-07</v>
+      </c>
+      <c r="Y6">
+        <v>7.993801024276642E-13</v>
+      </c>
+      <c r="Z6">
+        <v>-2.029402986275093E-08</v>
+      </c>
+      <c r="AA6">
+        <v>-2.301420173623766E-13</v>
+      </c>
+      <c r="AB6">
+        <v>-4.165350581159048E-10</v>
+      </c>
+      <c r="AC6">
+        <v>-1.032499447632188E-13</v>
+      </c>
+      <c r="AD6">
+        <v>-9.727323548547003E-12</v>
+      </c>
+      <c r="AE6">
+        <v>-2.096035290057735E-12</v>
+      </c>
+      <c r="AF6">
+        <v>-5.427647201081587E-15</v>
       </c>
     </row>
   </sheetData>
